--- a/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
+++ b/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B682040-E553-0147-84BA-65ABEC12A98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D1052-6471-2547-AA94-8C60498C3298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="4980" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
+    <workbookView xWindow="600" yWindow="1880" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="453">
   <si>
     <t>/export</t>
   </si>
@@ -1310,7 +1310,7 @@
     <t>0.031 x 0.0187 " tabs</t>
   </si>
   <si>
-    <t>For upright: https://www.snapeda.com/parts/B2B-PH-SM4-TB(LF)(SN)/JST/view-part/</t>
+    <t>https://www.snapeda.com/parts/B2B-PH-SM4-TB(LF)(SN)/JST/view-part/</t>
   </si>
   <si>
     <t>https://www.vishay.com/docs/88503/1n4001.pdf</t>
@@ -1340,29 +1340,112 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>S2B-PH-SM4-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>02KR-D6S-P</t>
-  </si>
-  <si>
-    <t>http://www.jst-mfg.com/product/pdf/eng/eKRD.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/02KR-D6S-P/455-2701-ND/2797501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decide: upright or side </t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/B2B-PH-SM4-TB(LF)(SN)/455-1734-1-ND/926831?utm_adgroup=Rectangular%20Connectors%20-%20Headers%2C%20Male%20Pins&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Product_Connectors%2C%20Interconnects_NEW&amp;utm_term=&amp;utm_content=Rectangular%20Connectors%20-%20Headers%2C%20Male%20Pins&amp;gclid=EAIaIQobChMIyYCM_uiE6gIVEgnnCh3ttQPaEAYYASABEgJaEPD_BwE</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>SML-Z14x(C) Series</t>
+  </si>
+  <si>
+    <t>Size: 3528 | 1411</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vf: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: 1.9V, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yellow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: 2.0V, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Green</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.0V</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/PHR-2/455-1165-ND/608607</t>
+  </si>
+  <si>
+    <t>http://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
+  </si>
+  <si>
+    <t>PHR-2</t>
+  </si>
+  <si>
+    <t>B2B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>find one</t>
+  </si>
+  <si>
+    <t>Buzzer_PS1927P02</t>
+  </si>
+  <si>
+    <t>https://d1d2qsbl8m0m72.cloudfront.net/en/products/databook/datasheet/opto/led/chip_mono/sml-z1(c)-e.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1451,7 +1534,24 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1459,11 +1559,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="ArialMT"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1482,6 +1583,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1496,11 +1603,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1509,28 +1617,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1846,323 +1965,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA934F02-491B-6E43-B7D3-DDC0BF2B7083}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="4" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6" t="s">
         <v>401</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="5" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="33">
         <v>402</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B13" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C13" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D13" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G13" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B14" s="22">
         <v>190160099</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C14" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D14" s="21" t="s">
         <v>436</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G14" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="B15" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="16" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B16" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="D16" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2172,14 +2330,15 @@
     <hyperlink ref="C3" r:id="rId4" xr:uid="{832D7E41-0EF6-C24C-AB8C-0F4DA16175C3}"/>
     <hyperlink ref="C2" r:id="rId5" xr:uid="{3440E1DD-7823-9340-A078-F3329B57A8A1}"/>
     <hyperlink ref="C10" r:id="rId6" xr:uid="{C2D8F6E8-5AE2-C044-AF51-40A9BD833A2A}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{DB181157-0340-2E43-8BEC-E40D5FC14472}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{EE73BAF4-57FE-D34F-B605-CABB102EF6C1}"/>
-    <hyperlink ref="E3" r:id="rId9" xr:uid="{C5C69A29-F2C8-734E-AC02-B2693DA21B52}"/>
-    <hyperlink ref="E2" r:id="rId10" xr:uid="{E4F6C71F-3232-B64A-AC2A-0747B8F257AF}"/>
-    <hyperlink ref="E6" r:id="rId11" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{21872F0C-130A-7347-A4B2-BB35D724F4AC}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{9F5934D6-257E-394B-B7BE-322D47654BA5}"/>
-    <hyperlink ref="E7" r:id="rId13" xr:uid="{48E00CA8-672B-E644-AD65-746CB019A17E}"/>
-    <hyperlink ref="E11" r:id="rId14" xr:uid="{73BB7572-E12A-EC41-B347-49D193DBA72E}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{DB181157-0340-2E43-8BEC-E40D5FC14472}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{EE73BAF4-57FE-D34F-B605-CABB102EF6C1}"/>
+    <hyperlink ref="F3" r:id="rId9" xr:uid="{C5C69A29-F2C8-734E-AC02-B2693DA21B52}"/>
+    <hyperlink ref="F2" r:id="rId10" xr:uid="{E4F6C71F-3232-B64A-AC2A-0747B8F257AF}"/>
+    <hyperlink ref="F6" r:id="rId11" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{21872F0C-130A-7347-A4B2-BB35D724F4AC}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{9F5934D6-257E-394B-B7BE-322D47654BA5}"/>
+    <hyperlink ref="F7" r:id="rId13" xr:uid="{48E00CA8-672B-E644-AD65-746CB019A17E}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{73BB7572-E12A-EC41-B347-49D193DBA72E}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{B66DABBE-061F-8D40-89F9-D6B64B9AF8E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
+++ b/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D1052-6471-2547-AA94-8C60498C3298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC0A07-D847-F541-86A3-2E52AAE9F466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="1880" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="454">
   <si>
     <t>/export</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>https://d1d2qsbl8m0m72.cloudfront.net/en/products/databook/datasheet/opto/led/chip_mono/sml-z1(c)-e.pdf</t>
+  </si>
+  <si>
+    <t>Connector to Control Board</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1971,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2312,7 +2315,9 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4"/>
+      <c r="A17" s="21" t="s">
+        <v>453</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>

--- a/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
+++ b/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC0A07-D847-F541-86A3-2E52AAE9F466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1ECDED-1A2D-C746-A946-6A2889B3B623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1880" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
+    <workbookView xWindow="1880" yWindow="460" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="457">
   <si>
     <t>/export</t>
   </si>
@@ -1432,9 +1432,6 @@
     <t>B2B-PH-SM4-TB(LF)(SN)</t>
   </si>
   <si>
-    <t>find one</t>
-  </si>
-  <si>
     <t>Buzzer_PS1927P02</t>
   </si>
   <si>
@@ -1442,6 +1439,18 @@
   </si>
   <si>
     <t>Connector to Control Board</t>
+  </si>
+  <si>
+    <t>Keep in mind we need a protective guard cover thing</t>
+  </si>
+  <si>
+    <t>5103308-3</t>
+  </si>
+  <si>
+    <t>In library</t>
+  </si>
+  <si>
+    <t>IN library</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1653,6 +1662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1971,7 +1981,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2033,7 +2043,7 @@
         <v>409</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>407</v>
@@ -2158,7 +2168,9 @@
       <c r="F9" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>453</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="28"/>
       <c r="J9" s="16"/>
@@ -2194,7 +2206,7 @@
         <v>441</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>442</v>
@@ -2214,9 +2226,11 @@
       <c r="B12" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="19" t="s">
-        <v>450</v>
+      <c r="C12" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>456</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="6"/>
@@ -2316,11 +2330,15 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>452</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="34" t="s">
+        <v>455</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>

--- a/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
+++ b/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1ECDED-1A2D-C746-A946-6A2889B3B623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FCBAE-BF17-434F-9FAE-C50308A8439D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="460" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
+    <workbookView xWindow="2840" yWindow="2400" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="455">
   <si>
     <t>/export</t>
   </si>
@@ -1175,9 +1175,6 @@
     <t>ESD Diode</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/keystone-electronics/5175TR/36-5175CT-ND/6834355</t>
-  </si>
-  <si>
     <t>digikey</t>
   </si>
   <si>
@@ -1196,9 +1193,6 @@
     <t>https://www.vishay.com/docs/70860/70860.pdf</t>
   </si>
   <si>
-    <t>Specialized PCB, as per https://www.keystone-europe.com/wp-content/uploads/2019/11/M70_keystone_guide_2019.pdf</t>
-  </si>
-  <si>
     <t>through-hole, hole locations specified on datasheet</t>
   </si>
   <si>
@@ -1263,9 +1257,6 @@
   </si>
   <si>
     <t>Push switches</t>
-  </si>
-  <si>
-    <t>5175TR</t>
   </si>
   <si>
     <t>0805 SMD RES</t>
@@ -1441,9 +1432,6 @@
     <t>Connector to Control Board</t>
   </si>
   <si>
-    <t>Keep in mind we need a protective guard cover thing</t>
-  </si>
-  <si>
     <t>5103308-3</t>
   </si>
   <si>
@@ -1451,6 +1439,12 @@
   </si>
   <si>
     <t>IN library</t>
+  </si>
+  <si>
+    <t>5ESH935</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/mec-switches/5ESH935/679-2579-ND/2411636</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1570,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1595,12 +1589,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1615,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1636,20 +1624,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1663,6 +1646,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1981,7 +1965,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1994,7 +1978,7 @@
     <row r="1" spans="1:12">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>381</v>
@@ -2004,78 +1988,78 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>392</v>
+      <c r="D2" s="19" t="s">
+        <v>390</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>409</v>
+      <c r="D3" s="19" t="s">
+        <v>407</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>433</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2085,152 +2069,148 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>101</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>118</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>402</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>118</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>417</v>
+      <c r="B10" s="26" t="s">
+        <v>414</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <v>402</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>456</v>
+        <v>442</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>452</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="6"/>
@@ -2239,105 +2219,105 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27" t="s">
+      <c r="B14" s="20">
+        <v>190160099</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="21" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="B14" s="22">
-        <v>190160099</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="B16" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="21" t="s">
+      <c r="D16" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="21" t="s">
-        <v>452</v>
-      </c>
       <c r="B17" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="34" t="s">
-        <v>455</v>
+      <c r="D17" s="31" t="s">
+        <v>451</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2353,15 +2333,15 @@
     <hyperlink ref="C3" r:id="rId4" xr:uid="{832D7E41-0EF6-C24C-AB8C-0F4DA16175C3}"/>
     <hyperlink ref="C2" r:id="rId5" xr:uid="{3440E1DD-7823-9340-A078-F3329B57A8A1}"/>
     <hyperlink ref="C10" r:id="rId6" xr:uid="{C2D8F6E8-5AE2-C044-AF51-40A9BD833A2A}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{DB181157-0340-2E43-8BEC-E40D5FC14472}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{EE73BAF4-57FE-D34F-B605-CABB102EF6C1}"/>
-    <hyperlink ref="F3" r:id="rId9" xr:uid="{C5C69A29-F2C8-734E-AC02-B2693DA21B52}"/>
-    <hyperlink ref="F2" r:id="rId10" xr:uid="{E4F6C71F-3232-B64A-AC2A-0747B8F257AF}"/>
-    <hyperlink ref="F6" r:id="rId11" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{21872F0C-130A-7347-A4B2-BB35D724F4AC}"/>
-    <hyperlink ref="F8" r:id="rId12" xr:uid="{9F5934D6-257E-394B-B7BE-322D47654BA5}"/>
-    <hyperlink ref="F7" r:id="rId13" xr:uid="{48E00CA8-672B-E644-AD65-746CB019A17E}"/>
-    <hyperlink ref="F13" r:id="rId14" xr:uid="{73BB7572-E12A-EC41-B347-49D193DBA72E}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{B66DABBE-061F-8D40-89F9-D6B64B9AF8E0}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{EE73BAF4-57FE-D34F-B605-CABB102EF6C1}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{C5C69A29-F2C8-734E-AC02-B2693DA21B52}"/>
+    <hyperlink ref="F2" r:id="rId9" xr:uid="{E4F6C71F-3232-B64A-AC2A-0747B8F257AF}"/>
+    <hyperlink ref="F6" r:id="rId10" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{21872F0C-130A-7347-A4B2-BB35D724F4AC}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{9F5934D6-257E-394B-B7BE-322D47654BA5}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{48E00CA8-672B-E644-AD65-746CB019A17E}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{73BB7572-E12A-EC41-B347-49D193DBA72E}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{B66DABBE-061F-8D40-89F9-D6B64B9AF8E0}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{516D2118-6BC4-6F48-8355-2429D72FB38C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
+++ b/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FCBAE-BF17-434F-9FAE-C50308A8439D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C30149-1AD6-6047-BA5F-8C21C8F8AF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2400" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
+    <workbookView xWindow="6460" yWindow="12460" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
@@ -1603,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1647,6 +1647,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1964,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA934F02-491B-6E43-B7D3-DDC0BF2B7083}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2147,7 +2148,7 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="33" t="s">
         <v>454</v>
       </c>
       <c r="G9" s="19"/>
@@ -2342,6 +2343,7 @@
     <hyperlink ref="F13" r:id="rId13" xr:uid="{73BB7572-E12A-EC41-B347-49D193DBA72E}"/>
     <hyperlink ref="D16" r:id="rId14" xr:uid="{B66DABBE-061F-8D40-89F9-D6B64B9AF8E0}"/>
     <hyperlink ref="C11" r:id="rId15" xr:uid="{516D2118-6BC4-6F48-8355-2429D72FB38C}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{26990298-D49E-C445-8572-EB11FFCE553C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
+++ b/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C30149-1AD6-6047-BA5F-8C21C8F8AF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEADACE-22BE-5948-9BFE-1F45C8D49487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="12460" windowWidth="21340" windowHeight="14540" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
+    <workbookView xWindow="0" yWindow="2320" windowWidth="25600" windowHeight="14520" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="455">
   <si>
     <t>/export</t>
   </si>
@@ -1163,9 +1163,6 @@
     <t>Net-(R13-Pad1)</t>
   </si>
   <si>
-    <t>Rocker switches</t>
-  </si>
-  <si>
     <t>datasheet</t>
   </si>
   <si>
@@ -1256,33 +1253,15 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Push switches</t>
-  </si>
-  <si>
     <t>0805 SMD RES</t>
   </si>
   <si>
-    <t>Download fr digikey</t>
-  </si>
-  <si>
     <t xml:space="preserve">TPD1E1B04 </t>
   </si>
   <si>
-    <t>DA102J12S215PQF</t>
-  </si>
-  <si>
-    <t>https://www.ckswitches.com/media/1441/da.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/c-k/DA102J12S215PQF/401-1288-ND/566766</t>
-  </si>
-  <si>
     <t>Alarm 2 (reg) diodes</t>
   </si>
   <si>
-    <t>Connector (Rocker to Wire)</t>
-  </si>
-  <si>
     <t>JST F</t>
   </si>
   <si>
@@ -1298,9 +1277,6 @@
     <t>0.187" tab thickness</t>
   </si>
   <si>
-    <t>0.031 x 0.0187 " tabs</t>
-  </si>
-  <si>
     <t>https://www.snapeda.com/parts/B2B-PH-SM4-TB(LF)(SN)/JST/view-part/</t>
   </si>
   <si>
@@ -1325,9 +1301,6 @@
     <t xml:space="preserve">n/a </t>
   </si>
   <si>
-    <t>n/a, via connector</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -1337,74 +1310,6 @@
     <t>LEDs</t>
   </si>
   <si>
-    <t>SML-Z14x(C) Series</t>
-  </si>
-  <si>
-    <t>Size: 3528 | 1411</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vf: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Red</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: 1.9V, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yellow</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: 2.0V, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Green</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.0V</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Capacitors </t>
   </si>
   <si>
@@ -1426,9 +1331,6 @@
     <t>Buzzer_PS1927P02</t>
   </si>
   <si>
-    <t>https://d1d2qsbl8m0m72.cloudfront.net/en/products/databook/datasheet/opto/led/chip_mono/sml-z1(c)-e.pdf</t>
-  </si>
-  <si>
     <t>Connector to Control Board</t>
   </si>
   <si>
@@ -1438,20 +1340,59 @@
     <t>In library</t>
   </si>
   <si>
-    <t>IN library</t>
-  </si>
-  <si>
-    <t>5ESH935</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/mec-switches/5ESH935/679-2579-ND/2411636</t>
+    <t>Connector to LEDs</t>
+  </si>
+  <si>
+    <t>B4B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>misc</t>
+  </si>
+  <si>
+    <t>Push switches (Front, SMD)</t>
+  </si>
+  <si>
+    <t>TC013-N11AR3KKK3UBXX</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/435/tc013%20series-1288144.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Well-Buying/TC013-N11AR3KKK3UBXX?qs=2Dzs5xnho3ZwN4Ec%2Fxp8eg%3D%3D</t>
+  </si>
+  <si>
+    <t>Many varieties, can have diff colors, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5060BRG4 LED RGB Strip </t>
+  </si>
+  <si>
+    <t>http://cdn.sparkfun.com/datasheets/Components/LED/5060BRG4.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/12023?_ga=2.265891407.1107080602.1593229551-2104231340.1592502141</t>
+  </si>
+  <si>
+    <t>Push switches (Back, QuickConnect)</t>
+  </si>
+  <si>
+    <t>TBD, any quickconnect switch can be put into the JST connector via JST F, wires, and quickconnect holders</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/cw-industries/GPB527D202BG/CW246-ND/3193619</t>
+  </si>
+  <si>
+    <t>Connector (Back Push to Wire)</t>
+  </si>
+  <si>
+    <t>See B2B, same but w/ 4 ports</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1545,13 +1486,6 @@
       <name val="ArialMT"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -1568,6 +1502,18 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1603,15 +1549,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1623,31 +1567,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1963,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA934F02-491B-6E43-B7D3-DDC0BF2B7083}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1977,373 +1910,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
+      <c r="B10" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="17">
         <v>402</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6" t="s">
+      <c r="C12" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B15" s="11">
+        <v>190160099</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="30">
-        <v>402</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="15" t="s">
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="B14" s="20">
-        <v>190160099</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{07F84CEB-A183-B743-8580-8EE5B4B30EEC}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{604182F6-CFAA-EA46-A61D-DD27CF72FFDA}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{C4E1D1F5-2069-8145-AC0B-65C5B6967921}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{832D7E41-0EF6-C24C-AB8C-0F4DA16175C3}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{3440E1DD-7823-9340-A078-F3329B57A8A1}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{C2D8F6E8-5AE2-C044-AF51-40A9BD833A2A}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{EE73BAF4-57FE-D34F-B605-CABB102EF6C1}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{C5C69A29-F2C8-734E-AC02-B2693DA21B52}"/>
-    <hyperlink ref="F2" r:id="rId9" xr:uid="{E4F6C71F-3232-B64A-AC2A-0747B8F257AF}"/>
-    <hyperlink ref="F6" r:id="rId10" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{21872F0C-130A-7347-A4B2-BB35D724F4AC}"/>
-    <hyperlink ref="F8" r:id="rId11" xr:uid="{9F5934D6-257E-394B-B7BE-322D47654BA5}"/>
-    <hyperlink ref="F7" r:id="rId12" xr:uid="{48E00CA8-672B-E644-AD65-746CB019A17E}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{73BB7572-E12A-EC41-B347-49D193DBA72E}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{B66DABBE-061F-8D40-89F9-D6B64B9AF8E0}"/>
-    <hyperlink ref="C11" r:id="rId15" xr:uid="{516D2118-6BC4-6F48-8355-2429D72FB38C}"/>
-    <hyperlink ref="F9" r:id="rId16" xr:uid="{26990298-D49E-C445-8572-EB11FFCE553C}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{3A20D6F5-6E21-384C-9CA2-7C49741E0D4B}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{F40431E8-6EDB-994E-A860-FDC1DD966BB0}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{D102AEE5-2D42-644E-A41C-09342F3628A3}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{26C66933-4B8E-F043-B399-E50B4F069CCF}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{4F9DE837-640F-C546-AF85-69233416E9D7}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{D1C06134-AF0C-F148-A422-7919924EE480}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{EB2C928C-9695-F149-96D9-F709CF9FC9C4}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{36B935D2-D499-EF4F-8459-4DD0DA07D646}"/>
+    <hyperlink ref="F2" r:id="rId9" xr:uid="{74B06F71-75A5-564E-B6AE-421EC3BE759D}"/>
+    <hyperlink ref="F6" r:id="rId10" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{6AD03F77-DE02-2544-8A4F-1D4EF609DF3F}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{B40E1448-B7F4-A84B-B214-5C6DE8620A0F}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{2EA15958-B5F2-344F-B464-AC3BF923BF86}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{F6057F65-52ED-164F-A980-EDA142320DEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
+++ b/designs/Pufferfish-Interface-1/reference/Interface BOM Draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEADACE-22BE-5948-9BFE-1F45C8D49487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FA8C64-A6F0-9B4E-897F-1AE9E35E62D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2320" windowWidth="25600" windowHeight="14520" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
+    <workbookView xWindow="7080" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{C443EF20-858B-934F-A0C9-B37FE8547315}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="457">
   <si>
     <t>/export</t>
   </si>
@@ -1184,9 +1184,6 @@
     <t>https://www.onsemi.com/pub/Collateral/KSC1815-D.pdf</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TPD1E1B04DPYR?qs=LuYMPh7GGMTwEWL%2FIe5IJQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.vishay.com/docs/70860/70860.pdf</t>
   </si>
   <si>
@@ -1256,9 +1253,6 @@
     <t>0805 SMD RES</t>
   </si>
   <si>
-    <t xml:space="preserve">TPD1E1B04 </t>
-  </si>
-  <si>
     <t>Alarm 2 (reg) diodes</t>
   </si>
   <si>
@@ -1386,13 +1380,25 @@
   </si>
   <si>
     <t>See B2B, same but w/ 4 ports</t>
+  </si>
+  <si>
+    <t>https://www.littelfuse.com/~/media/electronics/datasheets/tvs_diodes/littelfuse_tvs_diode_smf3_3_datasheet.pdf.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/littelfuse-inc/SMF3-3/F7701TR-ND/6189040</t>
+  </si>
+  <si>
+    <t>SMF3.3</t>
+  </si>
+  <si>
+    <t>Specified in datasheet, SMD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1493,12 +1499,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1549,7 +1549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1569,18 +1569,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1899,7 +1896,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1912,7 +1909,7 @@
     <row r="1" spans="1:12">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>380</v>
@@ -1925,70 +1922,70 @@
         <v>383</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>404</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -1997,7 +1994,7 @@
         <v>384</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>216</v>
@@ -2008,19 +2005,19 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="C6" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>101</v>
@@ -2034,10 +2031,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>386</v>
@@ -2047,52 +2044,52 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H9" s="5"/>
       <c r="J9" s="13"/>
@@ -2103,52 +2100,52 @@
       <c r="A10" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>411</v>
+      <c r="B10" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="17">
-        <v>402</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>453</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" s="16"/>
       <c r="F10" s="14" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+        <v>437</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="14"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B12" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="14" t="s">
         <v>447</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="14" t="s">
-        <v>449</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2156,16 +2153,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>216</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2174,93 +2171,93 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B15" s="11">
         <v>190160099</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>433</v>
+        <v>414</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>431</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>434</v>
+        <v>413</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>432</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2273,14 +2270,12 @@
     <hyperlink ref="C8" r:id="rId3" xr:uid="{D102AEE5-2D42-644E-A41C-09342F3628A3}"/>
     <hyperlink ref="C3" r:id="rId4" xr:uid="{26C66933-4B8E-F043-B399-E50B4F069CCF}"/>
     <hyperlink ref="C2" r:id="rId5" xr:uid="{4F9DE837-640F-C546-AF85-69233416E9D7}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{D1C06134-AF0C-F148-A422-7919924EE480}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{EB2C928C-9695-F149-96D9-F709CF9FC9C4}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{36B935D2-D499-EF4F-8459-4DD0DA07D646}"/>
-    <hyperlink ref="F2" r:id="rId9" xr:uid="{74B06F71-75A5-564E-B6AE-421EC3BE759D}"/>
-    <hyperlink ref="F6" r:id="rId10" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{6AD03F77-DE02-2544-8A4F-1D4EF609DF3F}"/>
-    <hyperlink ref="F8" r:id="rId11" xr:uid="{B40E1448-B7F4-A84B-B214-5C6DE8620A0F}"/>
-    <hyperlink ref="F7" r:id="rId12" xr:uid="{2EA15958-B5F2-344F-B464-AC3BF923BF86}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{F6057F65-52ED-164F-A980-EDA142320DEB}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{36B935D2-D499-EF4F-8459-4DD0DA07D646}"/>
+    <hyperlink ref="F2" r:id="rId7" xr:uid="{74B06F71-75A5-564E-B6AE-421EC3BE759D}"/>
+    <hyperlink ref="F6" r:id="rId8" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{6AD03F77-DE02-2544-8A4F-1D4EF609DF3F}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{B40E1448-B7F4-A84B-B214-5C6DE8620A0F}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{2EA15958-B5F2-344F-B464-AC3BF923BF86}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{F6057F65-52ED-164F-A980-EDA142320DEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
